--- a/санал_гомдол.xlsx
+++ b/санал_гомдол.xlsx
@@ -8440,12 +8440,12 @@
   <dimension ref="A1:J696"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
